--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Desktop\boulot\Projet 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5058F87-86CE-4F94-9F54-FDDB19CADD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348DC73-18B9-4A60-AF02-684F8628F1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348DC73-18B9-4A60-AF02-684F8628F1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCD213-936F-483B-A3F4-982F3ACB3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Catégorie</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Changer tout les mot Paris par Lyon</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Texte et fond du footer</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,6 +541,12 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCD213-936F-483B-A3F4-982F3ACB3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6B5DC-3923-4BB3-A7F9-A5822D32082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Catégorie</t>
   </si>
@@ -105,14 +105,92 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Texte et fond du footer</t>
+    <t xml:space="preserve">Langue attribut </t>
+  </si>
+  <si>
+    <t>La ligne &lt;html lang="Default"&gt; doit recevoir une langue et non pas un default</t>
+  </si>
+  <si>
+    <t>Notifier une langue</t>
+  </si>
+  <si>
+    <t>https://web.dev/html-lang-valid/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Size image</t>
+  </si>
+  <si>
+    <t>Les image ne sont pas au bon format</t>
+  </si>
+  <si>
+    <t>Resize les image</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Font non preload</t>
+  </si>
+  <si>
+    <t>Les font ne sont pas preload</t>
+  </si>
+  <si>
+    <t>Ajouter un preload pour les font utiliser</t>
+  </si>
+  <si>
+    <t>https://web.dev/preload-critical-assets/</t>
+  </si>
+  <si>
+    <t>Bourrage de mot clé</t>
+  </si>
+  <si>
+    <t>Div contenant plein de mot clé</t>
+  </si>
+  <si>
+    <t>Faire du Réferencement naturel</t>
+  </si>
+  <si>
+    <t>Supprimer les black hat</t>
+  </si>
+  <si>
+    <t>Resize les images</t>
+  </si>
+  <si>
+    <t>Li vide et Div sans header footer ou section</t>
+  </si>
+  <si>
+    <t>Enlever les balises vide et ajouter des sections</t>
+  </si>
+  <si>
+    <t>La balise title dans head ne contiens qu'un .</t>
+  </si>
+  <si>
+    <t>Mettre le nom du site dans la balise title</t>
+  </si>
+  <si>
+    <t>Des balise sont vide et il n'y a aucune section et espace en trop</t>
+  </si>
+  <si>
+    <t>Enlever les balises vide et ajouter des sections et suppression des espace en trop</t>
+  </si>
+  <si>
+    <t>Nom de la seconde page</t>
+  </si>
+  <si>
+    <t>La seconde page s'appelle page2</t>
+  </si>
+  <si>
+    <t>Renommer la page2 en contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +220,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,10 +258,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,8 +270,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,14 +490,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.21875" customWidth="1"/>
@@ -537,28 +624,76 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -571,22 +706,79 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1556,6 +1748,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{E6F0D412-305C-4ED3-AA1B-A0D7C4723098}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{F3978B32-A883-4AC1-97B4-B600010911E6}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{1E2A1096-A04A-4A74-BD19-01ECCDAC559D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6B5DC-3923-4BB3-A7F9-A5822D32082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67BF7E-3BBF-4BC5-BD38-DD598E35394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67BF7E-3BBF-4BC5-BD38-DD598E35394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D54254-69C4-459E-A09F-E0FF0291F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -184,13 +181,19 @@
   </si>
   <si>
     <t>Renommer la page2 en contact</t>
+  </si>
+  <si>
+    <t>Les fichier css et js ne sont pas minifier</t>
+  </si>
+  <si>
+    <t>Minifier tout les fichier js et css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,11 +210,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -260,17 +258,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,241 +541,240 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1746,12 +1742,11 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{E6F0D412-305C-4ED3-AA1B-A0D7C4723098}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{F3978B32-A883-4AC1-97B4-B600010911E6}"/>
-    <hyperlink ref="F21" r:id="rId3" xr:uid="{1E2A1096-A04A-4A74-BD19-01ECCDAC559D}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{E6F0D412-305C-4ED3-AA1B-A0D7C4723098}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{F3978B32-A883-4AC1-97B4-B600010911E6}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{1E2A1096-A04A-4A74-BD19-01ECCDAC559D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\GitHub\QuentinTronc_4_12052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D54254-69C4-459E-A09F-E0FF0291F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91027D-7037-41B2-823E-944C3AC82441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
